--- a/public/assets/excel/uploaded/8.xlsx
+++ b/public/assets/excel/uploaded/8.xlsx
@@ -12,1478 +12,6 @@
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="489">
-  <si>
-    <t>Product ID</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Product Price</t>
-  </si>
-  <si>
-    <t>강화도어손잡이 184 25파이 티타늄 340p</t>
-  </si>
-  <si>
-    <t>강화도어 타원마주 151 40X145 골드 340P</t>
-  </si>
-  <si>
-    <t>강화도어손잡이 원형마주 흑색 25파이</t>
-  </si>
-  <si>
-    <t>강화도어손잡이 GO64 오크 검정 340P</t>
-  </si>
-  <si>
-    <t>강화도어 스텐 일자 340P</t>
-  </si>
-  <si>
-    <t>주물손잡이 줄리 H154</t>
-  </si>
-  <si>
-    <t>주물손잡이 신비늘 피스형</t>
-  </si>
-  <si>
-    <t>주물손잡이 원형세로판 골드 H288</t>
-  </si>
-  <si>
-    <t>주물손잡이 2구 메플</t>
-  </si>
-  <si>
-    <t>주물손잡이 부채</t>
-  </si>
-  <si>
-    <t>주물일자손잡이 대소</t>
-  </si>
-  <si>
-    <t>주물손잡이 가로등</t>
-  </si>
-  <si>
-    <t>주물손잡이 사각세로판 H236</t>
-  </si>
-  <si>
-    <t>주물손잡이 두줄꽈배기</t>
-  </si>
-  <si>
-    <t>주물촛대 손잡이</t>
-  </si>
-  <si>
-    <t>주물손잡이 보리판</t>
-  </si>
-  <si>
-    <t>주물손잡이 고목 290mm</t>
-  </si>
-  <si>
-    <t>주물손잡이 가방 골드</t>
-  </si>
-  <si>
-    <t>주물손잡이 호리병꽈배기</t>
-  </si>
-  <si>
-    <t>주물손잡이 마디2구</t>
-  </si>
-  <si>
-    <t>주물 꽈배기손잡이</t>
-  </si>
-  <si>
-    <t>2구손잡이 주물손잡이 크로바</t>
-  </si>
-  <si>
-    <t>1구주물손잡이 세모 가구손잡이</t>
-  </si>
-  <si>
-    <t>1구주물손잡이 미모사 가구손잡이</t>
-  </si>
-  <si>
-    <t>1구주물손잡이 원 가구손잡이</t>
-  </si>
-  <si>
-    <t>주물손잡이 명찰가방 골드</t>
-  </si>
-  <si>
-    <t>주물손잡이 배추흰나비</t>
-  </si>
-  <si>
-    <t>주물손잡이 가리비</t>
-  </si>
-  <si>
-    <t>주물해태 손잡이</t>
-  </si>
-  <si>
-    <t>주물손잡이 주먹판</t>
-  </si>
-  <si>
-    <t>주물태극 손잡이</t>
-  </si>
-  <si>
-    <t>주물지그재그 손잡이</t>
-  </si>
-  <si>
-    <t>주물손잡이 링고리 연꽃</t>
-  </si>
-  <si>
-    <t>주물손잡이 원형세로판 H231</t>
-  </si>
-  <si>
-    <t>주물손잡이 국화</t>
-  </si>
-  <si>
-    <t>주물손잡이 가든</t>
-  </si>
-  <si>
-    <t>주물매입사각오목이 손잡이</t>
-  </si>
-  <si>
-    <t>철주물손잡이 삼족오</t>
-  </si>
-  <si>
-    <t>주물손잡이 2구 둥근반달</t>
-  </si>
-  <si>
-    <t>철주물손잡이 트레이</t>
-  </si>
-  <si>
-    <t>주물손잡이 꽃봉오리 골드</t>
-  </si>
-  <si>
-    <t>철주물손잡이 도트</t>
-  </si>
-  <si>
-    <t>주물손잡이 장미넝쿨</t>
-  </si>
-  <si>
-    <t>주물손잡이 가방</t>
-  </si>
-  <si>
-    <t>주물손잡이 더듬이</t>
-  </si>
-  <si>
-    <t>주물손잡이 에그 H234</t>
-  </si>
-  <si>
-    <t>토르마린 무릎 발열벨트 찜질벨트 보</t>
-  </si>
-  <si>
-    <t>임호산업 수족온욕기 족욕기 LH300 손</t>
-  </si>
-  <si>
-    <t>임호산업 수족온욕기 LH550 손 발 건강</t>
-  </si>
-  <si>
-    <t>임호산업 수족온욕기 LH600 손 발 건강</t>
-  </si>
-  <si>
-    <t>토르마린 목 패드 발열 찜질 보호 자</t>
-  </si>
-  <si>
-    <t>토르마린 손목 벨트 발열 찜질 보호</t>
-  </si>
-  <si>
-    <t>토르마린 음이온 허리 어깨 발열 찜질</t>
-  </si>
-  <si>
-    <t>세종 특대형 찜질매트 SH65150D8</t>
-  </si>
-  <si>
-    <t>세종 참숯옥 맥반석 찜질기 SH1400 다용</t>
-  </si>
-  <si>
-    <t>세종 참숯옥 맥반석 찜질기 SH1300 어깨</t>
-  </si>
-  <si>
-    <t>세종 참숯옥 맥반석 찜질기 SH1200 허리</t>
-  </si>
-  <si>
-    <t>세종 참숯옥 맥반석 찜질기 SH1100 무릎</t>
-  </si>
-  <si>
-    <t>세종 참숯옥 맥반석 찜질기 SH500 대형</t>
-  </si>
-  <si>
-    <t>세종 참숯옥 맥반석 찜질기 SH100 일반</t>
-  </si>
-  <si>
-    <t>아이스롤러 얼굴붓기빼기 얼굴쿨링기</t>
-  </si>
-  <si>
-    <t>황토촌 황토 옥 디지털 찜질기 MPD4080</t>
-  </si>
-  <si>
-    <t>1구손잡이 무도색 280 가구손잡이 38파</t>
-  </si>
-  <si>
-    <t>1구손잡이 무도색 정사각 1617</t>
-  </si>
-  <si>
-    <t>1구손잡이 무도색 직사각 1649</t>
-  </si>
-  <si>
-    <t>1구손잡이 무도색 TA691 가구손잡이</t>
-  </si>
-  <si>
-    <t>1구손잡이 무도색 1075 35파이 비치 DMS</t>
-  </si>
-  <si>
-    <t>1구손잡이 무도색 TA1082 가구손잡이</t>
-  </si>
-  <si>
-    <t>1구손잡이 무도색 사각기둥 1652</t>
-  </si>
-  <si>
-    <t>1구손잡이 무도색 삼각기둥 1651</t>
-  </si>
-  <si>
-    <t>1구손잡이 무도색 원기둥 1653</t>
-  </si>
-  <si>
-    <t>2구손잡이 무도색 TA119 1201325 가구손잡</t>
-  </si>
-  <si>
-    <t>1구손잡이 무도색 모자이크 1595</t>
-  </si>
-  <si>
-    <t>2구손잡이 무도색 96P TA1420 106X18X30 가</t>
-  </si>
-  <si>
-    <t>2구손잡이 무도색 TA834 96P DMS</t>
-  </si>
-  <si>
-    <t>1구손잡이 무도색 곰돌이 TA1350 가구손</t>
-  </si>
-  <si>
-    <t>1구손잡이 무도색 꽃 1623</t>
-  </si>
-  <si>
-    <t>1구손잡이 무도색 716 48파이 DMS</t>
-  </si>
-  <si>
-    <t>2구손잡이 무도색 TA1027 103P DMS</t>
-  </si>
-  <si>
-    <t>2구손잡이 무도색 TA839 112P DMS</t>
-  </si>
-  <si>
-    <t>2구손잡이 무도색 활 1594 128P</t>
-  </si>
-  <si>
-    <t>매입손잡이원형무도색</t>
-  </si>
-  <si>
-    <t>유닉스 바이브바인 핸드 안마기 UHM3900</t>
-  </si>
-  <si>
-    <t>유닉스 골드 플러스 핸드 마사지 4구</t>
-  </si>
-  <si>
-    <t>유닉스 덤퍼 핸드 마사지기 2구 안마</t>
-  </si>
-  <si>
-    <t>유닉스 마사지기 안마기 UN95M 강약조</t>
-  </si>
-  <si>
-    <t>유닉스 파워 드라이빙 발마사지기 UFM4</t>
-  </si>
-  <si>
-    <t>유닉스 교체봉 지압 안마기 UHM1600 안</t>
-  </si>
-  <si>
-    <t>유닉스 안마기 솔리드 MX2900 안마기 안</t>
-  </si>
-  <si>
-    <t>유닉스 핸디 안마기 UM30 안마기 안마</t>
-  </si>
-  <si>
-    <t>유닉스 파워 이온 플러스 안마기MX3500</t>
-  </si>
-  <si>
-    <t>샷시문손잡이 헨켈 2개1조</t>
-  </si>
-  <si>
-    <t>샷시손잡이 PVC고정핸들</t>
-  </si>
-  <si>
-    <t>베란다샷시손잡이 오크</t>
-  </si>
-  <si>
-    <t>베란다샷시손잡이 화이트</t>
-  </si>
-  <si>
-    <t>샷시손잡이 고정그립핸들 HF101</t>
-  </si>
-  <si>
-    <t>헬스원 양 발지압판 골드 FFMG7230 발관</t>
-  </si>
-  <si>
-    <t>헬스원 발지압 브레인 공부매트 IQ180 I</t>
-  </si>
-  <si>
-    <t>헬스원 지압달인 만수무강 매트 FML470A</t>
-  </si>
-  <si>
-    <t>헬스원 지압달인 자갈마당 MFM400 발관</t>
-  </si>
-  <si>
-    <t>헬스원 오피스 자갈닥터 FMD550 발관리</t>
-  </si>
-  <si>
-    <t>헬스원 주방싱크 매트 WSM100 발관리 발</t>
-  </si>
-  <si>
-    <t>헬스원 양 발지압판 골드 FFMG7233 발관</t>
-  </si>
-  <si>
-    <t>헬스원 지압달인 만수무강 매트 FML470B</t>
-  </si>
-  <si>
-    <t>헬스원 자갈마당 MFM400B 발관리 발매트</t>
-  </si>
-  <si>
-    <t>헬스원 오피스 자갈닥터 FMD550B 발관리</t>
-  </si>
-  <si>
-    <t>발지압 매트 헬스원 매트 WSM100A 발관</t>
-  </si>
-  <si>
-    <t>경첩부착형 스무버 헤펠레</t>
-  </si>
-  <si>
-    <t>스프링자유경첩 녹색 양개형</t>
-  </si>
-  <si>
-    <t>이지경첩스텐 4010</t>
-  </si>
-  <si>
-    <t>미니접이식경첩 H2000 90도 가구경첩 무</t>
-  </si>
-  <si>
-    <t>미니이지경첩2인치 소가구경첩</t>
-  </si>
-  <si>
-    <t>5너클경첩 3030 라운드</t>
-  </si>
-  <si>
-    <t>접이문경첩 크롬 2개1조</t>
-  </si>
-  <si>
-    <t>씽크경첩110도 아웃도어 가구경첩</t>
-  </si>
-  <si>
-    <t>미니이지경첩 25인치 브론즈</t>
-  </si>
-  <si>
-    <t>강력가구고정 벽대상판 경첩형 TFLLN</t>
-  </si>
-  <si>
-    <t>스프링수대경첩 백색 좌우1조</t>
-  </si>
-  <si>
-    <t>피아노경첩 스텐 1000mm</t>
-  </si>
-  <si>
-    <t>미싱경첩 반달 천연색</t>
-  </si>
-  <si>
-    <t>H2000150도 가구경첩 무타공</t>
-  </si>
-  <si>
-    <t>접이문경첩 58B 흑색</t>
-  </si>
-  <si>
-    <t>사물함경첩 중간용</t>
-  </si>
-  <si>
-    <t>병풍경첩 반달 810T용 2개입</t>
-  </si>
-  <si>
-    <t>씽크경첩 유압 92도 아웃</t>
-  </si>
-  <si>
-    <t>스프링경첩스텐</t>
-  </si>
-  <si>
-    <t>아크릴경첩</t>
-  </si>
-  <si>
-    <t>유리경첩 5T용 C970C971</t>
-  </si>
-  <si>
-    <t>유압씽크경첩110도인도어</t>
-  </si>
-  <si>
-    <t>미니스프링경첩 소가구경첩</t>
-  </si>
-  <si>
-    <t>유럽형T경첩흑색 가구경첩</t>
-  </si>
-  <si>
-    <t>랏지분리경첩 SA형 철 크롬 일제 38 소</t>
-  </si>
-  <si>
-    <t>샷시경첩 T헨켈 조</t>
-  </si>
-  <si>
-    <t>무타공경첩 유압 4인치</t>
-  </si>
-  <si>
-    <t>파티션경첩 가구경첩 병풍경첩</t>
-  </si>
-  <si>
-    <t>38mm경첩 소가구경첩</t>
-  </si>
-  <si>
-    <t>샤워부스 피벗힌지 하부 유리경첩</t>
-  </si>
-  <si>
-    <t>유리경첩 더블 180도 68T</t>
-  </si>
-  <si>
-    <t>남대문경첩</t>
-  </si>
-  <si>
-    <t>유리경첩 싱글 90도 68T</t>
-  </si>
-  <si>
-    <t>샤워부스경첩 T형 직각 벽대유리</t>
-  </si>
-  <si>
-    <t>창문열림방지 경첩 일제</t>
-  </si>
-  <si>
-    <t>스텐분리형경첩 51X76mm</t>
-  </si>
-  <si>
-    <t>Z경첩 15인치 밤색 가구경첩</t>
-  </si>
-  <si>
-    <t>접이문경첩 수납장 일제고급형</t>
-  </si>
-  <si>
-    <t>샤워부스경첩 유리대유리 180도 밖5도</t>
-  </si>
-  <si>
-    <t>샤시용 홈T 경첩</t>
-  </si>
-  <si>
-    <t>이지아경첩</t>
-  </si>
-  <si>
-    <t>샤워부스경첩 유리대유리 180도 직각</t>
-  </si>
-  <si>
-    <t>코털 제거기 미용 뷰티 콧털 정리기</t>
-  </si>
-  <si>
-    <t>스테인레스 수동식 코털제거기 콧털</t>
-  </si>
-  <si>
-    <t>샤오미 코털 제거기 HN3 콧털 정리기</t>
-  </si>
-  <si>
-    <t>파나소닉 ER115 코털제거기 물세척용</t>
-  </si>
-  <si>
-    <t>필립스 NT 1605 코털제거기 건전지식 코</t>
-  </si>
-  <si>
-    <t>필립스 NT 3600 코털제거기 방수 2헤드</t>
-  </si>
-  <si>
-    <t>샤오미 코털 제거기 HN1 콧털 정리기</t>
-  </si>
-  <si>
-    <t>파나소닉 ERGN11 블랙 코털제거기 일본</t>
-  </si>
-  <si>
-    <t>브라운 EN10 코털 귀털 정리기 털제거</t>
-  </si>
-  <si>
-    <t>필립스 NT5600 코털제거기 3헤드 코털정</t>
-  </si>
-  <si>
-    <t>40cm 스카치 눈꽃 트리</t>
-  </si>
-  <si>
-    <t>60cm 스카치 눈꽃 트리</t>
-  </si>
-  <si>
-    <t>60cm 풍성한 스카치 트리</t>
-  </si>
-  <si>
-    <t>10구 LED 하트뿅 가랜드전구15M 핑크</t>
-  </si>
-  <si>
-    <t>10구 LED 하트뿅 가랜드전구15M 레드</t>
-  </si>
-  <si>
-    <t>10구 LED 클립 집게 전구15M 웜색</t>
-  </si>
-  <si>
-    <t>90cm 스카치 눈꽃 트리</t>
-  </si>
-  <si>
-    <t>커스텀 신발고정 슈즈키퍼 2켤레세트2</t>
-  </si>
-  <si>
-    <t>90cm 풍성한 스카치 트리</t>
-  </si>
-  <si>
-    <t>10구 LED 클립 집게 전구15M 컬러</t>
-  </si>
-  <si>
-    <t>20구 와이어 파인애플 웜색전구2M</t>
-  </si>
-  <si>
-    <t>20구 와이어 코끼리 웜색전구2M</t>
-  </si>
-  <si>
-    <t>편한발 미니 신발 제골기 4p세트핑크</t>
-  </si>
-  <si>
-    <t>편한발 미니 신발 제골기 4p세트레드</t>
-  </si>
-  <si>
-    <t>20구 LED 클립 집게 전구3M 컬러</t>
-  </si>
-  <si>
-    <t>20구 LED 클립 집게 전구3M 웜색</t>
-  </si>
-  <si>
-    <t>40cm 뉴리얼 솔잎 혼합 트리</t>
-  </si>
-  <si>
-    <t>10구 LED 별 집게 전구15M 컬러</t>
-  </si>
-  <si>
-    <t>10구 LED 별 집게 전구15M 웜색</t>
-  </si>
-  <si>
-    <t>40구 LED 하트뿅 가랜드 전구6M 핑크</t>
-  </si>
-  <si>
-    <t>20구 LED 클립 집게 전구3M 컬러 점멸</t>
-  </si>
-  <si>
-    <t>20구 LED 클립 집게 전구3M 웜색 점멸</t>
-  </si>
-  <si>
-    <t>10구 LED 클립 집게 전구 2p세트15M 컬러</t>
-  </si>
-  <si>
-    <t>10구 LED 클립 집게 전구 2p세트15M 웜색</t>
-  </si>
-  <si>
-    <t>10구 LED 타지마할 가랜드 전구웜색 15M</t>
-  </si>
-  <si>
-    <t>30구 LED 클립 집게 전구48M 컬러 점멸</t>
-  </si>
-  <si>
-    <t>30구 LED 클립 집게 전구48M 웜색</t>
-  </si>
-  <si>
-    <t>윈도우 3D 착시 LED 장식전구별 18구</t>
-  </si>
-  <si>
-    <t>60cm 뉴리얼 솔잎 혼합 트리</t>
-  </si>
-  <si>
-    <t>20구 LED 별 집게 전구3M 컬러</t>
-  </si>
-  <si>
-    <t>20구 LED 별 집게 전구3M 웜색</t>
-  </si>
-  <si>
-    <t>20구 LED 별 집게 전구3M 컬러 점멸</t>
-  </si>
-  <si>
-    <t>20구 LED 별 집게 전구3M 웜색 점멸</t>
-  </si>
-  <si>
-    <t>40구 LED 클립 집게 전구6M 컬러 점멸</t>
-  </si>
-  <si>
-    <t>40구 LED 클립 집게 전구6M 웜색 점멸</t>
-  </si>
-  <si>
-    <t>60cm 솔잎 트리</t>
-  </si>
-  <si>
-    <t>90cm 뉴리얼 솔잎 혼합 트리</t>
-  </si>
-  <si>
-    <t>120cm 스카치 눈꽃 트리</t>
-  </si>
-  <si>
-    <t>40구 LED 별 집게 전구6M 컬러 점멸</t>
-  </si>
-  <si>
-    <t>120cm 스카치 화이트 트리</t>
-  </si>
-  <si>
-    <t>150cm 스카치 눈꽃 트리</t>
-  </si>
-  <si>
-    <t>90cm 뉴리얼 솔잎 트리</t>
-  </si>
-  <si>
-    <t>90cm 혼합 전나무 트리</t>
-  </si>
-  <si>
-    <t>180cm 스카치 눈꽃 트리</t>
-  </si>
-  <si>
-    <t>150cm 솔잎 트리</t>
-  </si>
-  <si>
-    <t>150cm 뉴리얼 솔잎 눈꽃 트리</t>
-  </si>
-  <si>
-    <t>180cm 스카치 화이트 트리</t>
-  </si>
-  <si>
-    <t>210cm 풍성한 스카치 트리</t>
-  </si>
-  <si>
-    <t>120cm 혼합 전나무 트리</t>
-  </si>
-  <si>
-    <t>180cm 뉴리얼 솔잎 트리</t>
-  </si>
-  <si>
-    <t>240cm 스카치 눈꽃 트리</t>
-  </si>
-  <si>
-    <t>150cm 눈덮힌 전나무 트리</t>
-  </si>
-  <si>
-    <t>180cm 리얼 솔잎 트리</t>
-  </si>
-  <si>
-    <t>150cm 혼합 전나무 트리</t>
-  </si>
-  <si>
-    <t>270cm 풍성한 스카치 트리</t>
-  </si>
-  <si>
-    <t>180cm 열매 솔잎 트리</t>
-  </si>
-  <si>
-    <t>180cm 눈덮힌 전나무 트리</t>
-  </si>
-  <si>
-    <t>240cm 스카치 화이트 트리</t>
-  </si>
-  <si>
-    <t>180cm 혼합 전나무 트리</t>
-  </si>
-  <si>
-    <t>240cm 뉴리얼 솔잎 트리</t>
-  </si>
-  <si>
-    <t>210cm 눈덮힌 전나무 트리</t>
-  </si>
-  <si>
-    <t>210cm 열매 솔잎 트리</t>
-  </si>
-  <si>
-    <t>270cm 뉴리얼 솔잎 트리</t>
-  </si>
-  <si>
-    <t>270cm 뉴리얼 솔잎 혼합 트리</t>
-  </si>
-  <si>
-    <t>270cm 스카치 화이트 트리</t>
-  </si>
-  <si>
-    <t>240cm 혼합 전나무 트리</t>
-  </si>
-  <si>
-    <t>300cm 대형 스카치 눈꽃 트리</t>
-  </si>
-  <si>
-    <t>270cm 혼합 전나무 트리</t>
-  </si>
-  <si>
-    <t>300cm 대형 뉴리얼 솔잎 눈꽃 트리</t>
-  </si>
-  <si>
-    <t>300cm 대형 뉴리얼 솔잎 혼합 트리</t>
-  </si>
-  <si>
-    <t>300cm 스카치 화이트 트리</t>
-  </si>
-  <si>
-    <t>240cm 리얼 전나무 트리</t>
-  </si>
-  <si>
-    <t>500cm 대형 뉴리얼 솔잎 트리ABC</t>
-  </si>
-  <si>
-    <t>피벗 엔틱 힌지</t>
-  </si>
-  <si>
-    <t>유리피벗힌지 백색</t>
-  </si>
-  <si>
-    <t>다이캐스팅힌지</t>
-  </si>
-  <si>
-    <t>다이캐스팅코너힌지 DBS</t>
-  </si>
-  <si>
-    <t>다이캐스팅경첩CH4040</t>
-  </si>
-  <si>
-    <t>다이캐스팅경첩CH3060</t>
-  </si>
-  <si>
-    <t>다이캐스팅경첩CH6060</t>
-  </si>
-  <si>
-    <t>피벗힌지수리세트 현관문닥터</t>
-  </si>
-  <si>
-    <t>슬립힌지 SH6070 흑색 좌</t>
-  </si>
-  <si>
-    <t>원터치도어클로저</t>
-  </si>
-  <si>
-    <t>도어클로저 A062 4060kg 평자</t>
-  </si>
-  <si>
-    <t>도어클로저 방문용 ZJ301</t>
-  </si>
-  <si>
-    <t>컴팩트도어클로저</t>
-  </si>
-  <si>
-    <t>도어클로저 K907</t>
-  </si>
-  <si>
-    <t>도어클로저 620 king</t>
-  </si>
-  <si>
-    <t>세이프슬라이딩도어클로저 CTC700 신형</t>
-  </si>
-  <si>
-    <t>도어클로저 목문용 K100 king</t>
-  </si>
-  <si>
-    <t>도어클로저 2630 방화용 king</t>
-  </si>
-  <si>
-    <t>도어클로저경첩 4545 SN 퍼스트</t>
-  </si>
-  <si>
-    <t>도어클로저 매립형 KCD133 4065kg king</t>
-  </si>
-  <si>
-    <t>도어클로저 매립형 KCD134 6085kg king</t>
-  </si>
-  <si>
-    <t>도어클로저 k1620 90도스톱</t>
-  </si>
-  <si>
-    <t>도어클로져 표준형 실버 뉴스타 45kg</t>
-  </si>
-  <si>
-    <t>도어클로저 k1630 90도 스톱</t>
-  </si>
-  <si>
-    <t>도어클로저경첩세트 4545 SN</t>
-  </si>
-  <si>
-    <t>엘피 무릎 보호대 LP641 압박밴드 밴드</t>
-  </si>
-  <si>
-    <t>미스터골프 암밴드</t>
-  </si>
-  <si>
-    <t>노바NOVA보행보조차 스틸형 F218</t>
-  </si>
-  <si>
-    <t>노바 보행보조 4발 바퀴 워커 4081WS</t>
-  </si>
-  <si>
-    <t>케어맥스 보행보조차 컴팩트 CWC200</t>
-  </si>
-  <si>
-    <t>케어맥스 보행보조차 노블 넥스트 CWM3</t>
-  </si>
-  <si>
-    <t>노바NOVA보행보조차 신형 F660</t>
-  </si>
-  <si>
-    <t>케어맥스 실버플라이 보행보조차 CM007</t>
-  </si>
-  <si>
-    <t>실버플라이 보행보조차 CWSP300</t>
-  </si>
-  <si>
-    <t>해피웰리스 보행보조차 F238</t>
-  </si>
-  <si>
-    <t>케어맥스 조절식 쿠션 알루미늄 지팡</t>
-  </si>
-  <si>
-    <t>케어맥스 접이식 우드 알루미늄 고급</t>
-  </si>
-  <si>
-    <t>노바 3단 지팡이 접이식</t>
-  </si>
-  <si>
-    <t>노바 2단 지팡이 일반형</t>
-  </si>
-  <si>
-    <t>노바 2단 지팡이 고급형</t>
-  </si>
-  <si>
-    <t>소형 산타 일반 양말23cmx175cm</t>
-  </si>
-  <si>
-    <t>270cm 뉴리얼 솔잎 눈꽃 트리</t>
-  </si>
-  <si>
-    <t>방울방울 루돌프 귀마개인디핑크</t>
-  </si>
-  <si>
-    <t>방울방울 루돌프 귀마개레드화이트</t>
-  </si>
-  <si>
-    <t>붉은 악마 귀마개</t>
-  </si>
-  <si>
-    <t>눈꽃 스마트폰 터치 니트장갑그레이</t>
-  </si>
-  <si>
-    <t>레드윈터 수면양말</t>
-  </si>
-  <si>
-    <t>방한 니트 반장갑브라운</t>
-  </si>
-  <si>
-    <t>LED 숲속의 순록 아크릴 무드등</t>
-  </si>
-  <si>
-    <t>LED 크리스마스 트리 아크릴 무드등</t>
-  </si>
-  <si>
-    <t>방한 니트 반장갑블랙</t>
-  </si>
-  <si>
-    <t>심쿵 밍크 벙어리장갑브라운</t>
-  </si>
-  <si>
-    <t>모던 보틀 철제 무드등</t>
-  </si>
-  <si>
-    <t>모던 와인병 철제 무드등</t>
-  </si>
-  <si>
-    <t>블룸 벚꽃 조화 넝쿨 2p세트화이트</t>
-  </si>
-  <si>
-    <t>블룸 벚꽃 조화 넝쿨 2p세트핑크</t>
-  </si>
-  <si>
-    <t>블룸 벚꽃 조화 넝쿨 2p세트피치</t>
-  </si>
-  <si>
-    <t>블룸 벚꽃 조화 넝쿨 2p세트라이트핑</t>
-  </si>
-  <si>
-    <t>3D 입체 하우스 쿠키커터 18종세트</t>
-  </si>
-  <si>
-    <t>겨울눈꽃 터치 니트장갑블랙</t>
-  </si>
-  <si>
-    <t>두근두근 하트 선물상자 5p세트215x215cm</t>
-  </si>
-  <si>
-    <t>하트풍선 3D 착시 아크릴 무드등</t>
-  </si>
-  <si>
-    <t>꿈나라 달곰이 3D 착시 아크릴 무드등</t>
-  </si>
-  <si>
-    <t>큐피드의 화살 3D 착시 아크릴 무드등</t>
-  </si>
-  <si>
-    <t>하얀밤 숲속의 사슴 아크릴 무드등</t>
-  </si>
-  <si>
-    <t>심쿵 밍크 벙어리장갑퍼플그레이</t>
-  </si>
-  <si>
-    <t>스마일 스마트폰 터치장갑</t>
-  </si>
-  <si>
-    <t>하트 기모 스마트폰 터치장갑화이트</t>
-  </si>
-  <si>
-    <t>하트 기모 스마트폰 터치장갑인디핑</t>
-  </si>
-  <si>
-    <t>방한 스마트폰 터치 니트장갑블랙</t>
-  </si>
-  <si>
-    <t>방한 니트 반장갑그레이</t>
-  </si>
-  <si>
-    <t>레빗 밍크 벙어리장갑핑크</t>
-  </si>
-  <si>
-    <t>디어 니트 벙어리장갑그레이</t>
-  </si>
-  <si>
-    <t>크리스마스 손잡이 선물백19x265cm 화이</t>
-  </si>
-  <si>
-    <t>크리스마스 손잡이 선물백24x32cm 레드</t>
-  </si>
-  <si>
-    <t>감성나무 LED 무드등USB건전지 별</t>
-  </si>
-  <si>
-    <t>감성나무 LED 무드등USB건전지 하트</t>
-  </si>
-  <si>
-    <t>감성나무 LED 무드등USB건전지 눈꽃</t>
-  </si>
-  <si>
-    <t>USB 자작나무 LED 무드등60cm</t>
-  </si>
-  <si>
-    <t>3D 입체 크리스마스 쿠키커터 8종세트</t>
-  </si>
-  <si>
-    <t>USB 자작나무 LED 무드등180cm</t>
-  </si>
-  <si>
-    <t>USB 자작나무 LED 무드등120cm</t>
-  </si>
-  <si>
-    <t>USB 자작나무 LED 무드등90cm</t>
-  </si>
-  <si>
-    <t>또로와로로또로 성탄 봉제인형45cm 크</t>
-  </si>
-  <si>
-    <t>크리스마스 성탄 하우스14m</t>
-  </si>
-  <si>
-    <t>크리스마스 로프 산타 인형60cm</t>
-  </si>
-  <si>
-    <t>크리스마스 로프 산타 인형70cm</t>
-  </si>
-  <si>
-    <t>크리스마스 낙하 산타 인형60cm</t>
-  </si>
-  <si>
-    <t>크리스마스 낙하 산타 인형70cm</t>
-  </si>
-  <si>
-    <t>일본 제이엠 더블렌즈 집광식 돋보기</t>
-  </si>
-  <si>
-    <t>일본 스펙웰 휴대용 정밀 돋보기 세트</t>
-  </si>
-  <si>
-    <t>영국 코일 LED조명 휴대용 돋보기 7148 9</t>
-  </si>
-  <si>
-    <t>영국 코일 LED조명 휴대용 돋보기 7147 7</t>
-  </si>
-  <si>
-    <t>영국 코일 하이파워 스탠드형 돋보기</t>
-  </si>
-  <si>
-    <t>영국 코일 하이파워 손잡이형 돋보기</t>
-  </si>
-  <si>
-    <t>영국 코일 집광식 돋보기 5850 17x 50mm</t>
-  </si>
-  <si>
-    <t>영국 코일 작업용 스탠드형 돋보기 582</t>
-  </si>
-  <si>
-    <t>영국 코일 윈저 손잡이형 돋보기 5249 2</t>
-  </si>
-  <si>
-    <t>영국 코일 윈저 손잡이형 돋보기 5248 2</t>
-  </si>
-  <si>
-    <t>자석스토퍼 유압</t>
-  </si>
-  <si>
-    <t>자석스토퍼 스텐 4508</t>
-  </si>
-  <si>
-    <t>말굽 페달식 도어스토퍼</t>
-  </si>
-  <si>
-    <t>말굽 튼튼도어스토퍼</t>
-  </si>
-  <si>
-    <t>자석스토퍼 우드 반달</t>
-  </si>
-  <si>
-    <t>스프링스토퍼 슬림</t>
-  </si>
-  <si>
-    <t>AL도어스토퍼</t>
-  </si>
-  <si>
-    <t>바닥스토퍼 회전 베이지</t>
-  </si>
-  <si>
-    <t>말굽브론즈대 중 소 도어스토퍼</t>
-  </si>
-  <si>
-    <t>발통 도어스토퍼 TPR 4개1</t>
-  </si>
-  <si>
-    <t>스텐고리도어스토퍼 1005030mm</t>
-  </si>
-  <si>
-    <t>우레탄도어스토퍼 C5286 크롬</t>
-  </si>
-  <si>
-    <t>문틀용도어스토퍼 ㄱ자 스텐 좌우선</t>
-  </si>
-  <si>
-    <t>우레탄도어스토퍼 53803 갈색</t>
-  </si>
-  <si>
-    <t>고리스토퍼 스텐 J41 4587</t>
-  </si>
-  <si>
-    <t>도어스토퍼 체결형 흑색 일제</t>
-  </si>
-  <si>
-    <t>암스토퍼 스텐 I형 일제</t>
-  </si>
-  <si>
-    <t>슬라이딩 HK 호차세트 스토퍼2개입</t>
-  </si>
-  <si>
-    <t>도어스토퍼 스텐 연질수지 RS21 일제</t>
-  </si>
-  <si>
-    <t>스프링 도어스토퍼 일자BS330</t>
-  </si>
-  <si>
-    <t>샷시스토퍼 백색</t>
-  </si>
-  <si>
-    <t>바닥스토퍼909</t>
-  </si>
-  <si>
-    <t>자석스토퍼 스텐 종모양 1501</t>
-  </si>
-  <si>
-    <t>문틀용도어스토퍼 평 스텐 좌우선택</t>
-  </si>
-  <si>
-    <t>말굽 접착식 무타공스토퍼 200mm</t>
-  </si>
-  <si>
-    <t>문틀용도어스토퍼 스텐 겸용</t>
-  </si>
-  <si>
-    <t>바닥스토퍼 반달 크롬 소</t>
-  </si>
-  <si>
-    <t>드릴비트스토퍼 3PCS 울프크래프트</t>
-  </si>
-  <si>
-    <t>일자스토퍼 크롬도어스토퍼</t>
-  </si>
-  <si>
-    <t>104호차세트 S4 KSL</t>
-  </si>
-  <si>
-    <t>유리스토퍼 ㄱ자</t>
-  </si>
-  <si>
-    <t>자석스토퍼</t>
-  </si>
-  <si>
-    <t>유리스토퍼 Y자</t>
-  </si>
-  <si>
-    <t>자석스토퍼 스텐 길이조절 1403</t>
-  </si>
-  <si>
-    <t>바닥스토퍼 흑링 스텐</t>
-  </si>
-  <si>
-    <t>104스토퍼 S4 KSL</t>
-  </si>
-  <si>
-    <t>바닥스토퍼 반달 305</t>
-  </si>
-  <si>
-    <t>104스토퍼S7KSL</t>
-  </si>
-  <si>
-    <t>가구고정스토퍼 길이연장볼트</t>
-  </si>
-  <si>
-    <t>바닥스토퍼 기둥형</t>
-  </si>
-  <si>
-    <t>카스토퍼 PP HA505 콘크리트앙카포함</t>
-  </si>
-  <si>
-    <t>홀딩스토퍼 중</t>
-  </si>
-  <si>
-    <t>스토퍼소</t>
-  </si>
-  <si>
-    <t>바닥스토퍼 무턱반달 3062 50mm 크롬무</t>
-  </si>
-  <si>
-    <t>스토퍼특대</t>
-  </si>
-  <si>
-    <t>홀딩스토퍼 대</t>
-  </si>
-  <si>
-    <t>도어스토퍼 90mm</t>
-  </si>
-  <si>
-    <t>큐비클스토퍼 옷걸이</t>
-  </si>
-  <si>
-    <t>일자스토퍼 BS408 철문용</t>
-  </si>
-  <si>
-    <t>일자스토퍼 신주도어스토퍼</t>
-  </si>
-  <si>
-    <t>방문도어스토퍼 큐브 RED 일제</t>
-  </si>
-  <si>
-    <t>HK레일스토퍼B 4구</t>
-  </si>
-  <si>
-    <t>고무스토퍼 C701 초록 니켈</t>
-  </si>
-  <si>
-    <t>창문잠금장치 미닫이문 스토퍼 샷시</t>
-  </si>
-  <si>
-    <t>DOOR 홀드 도어 홀드 도어 안전잠금장</t>
-  </si>
-  <si>
-    <t>G1052 방충 방범 안전 잠금 장치 윈도우</t>
-  </si>
-  <si>
-    <t>디럭스슬림 방충 방범 안전 잠금 장치</t>
-  </si>
-  <si>
-    <t>디럭스 방충 방범 안전 잠금 장치 윈</t>
-  </si>
-  <si>
-    <t>진동경보기 방충 방범 안전 잠금 장치</t>
-  </si>
-  <si>
-    <t>G1051 방충 방범 안전 잠금 장치 윈도우</t>
-  </si>
-  <si>
-    <t>G105 방충 방범 안전 잠금 장치 윈도우</t>
-  </si>
-  <si>
-    <t>G106 창문 방충 방범 안전 잠금 장치 윈</t>
-  </si>
-  <si>
-    <t>G102 창문 방충 방범 안전 잠금 장치 윈</t>
-  </si>
-  <si>
-    <t>G101 창문 방충 방범 안전 잠금 장치 윈</t>
-  </si>
-  <si>
-    <t>쿠션 투명</t>
-  </si>
-  <si>
-    <t>쿠션 투명 도어범퍼</t>
-  </si>
-  <si>
-    <t>쿠션 백색 52파이 3M</t>
-  </si>
-  <si>
-    <t>도어쿠션 스마일</t>
-  </si>
-  <si>
-    <t>쿠션 피스용 15파이 투명 TP12207</t>
-  </si>
-  <si>
-    <t>쿠션 PVC 도어범퍼 60파이</t>
-  </si>
-  <si>
-    <t>쿠션 백색 40파이 2개입</t>
-  </si>
-  <si>
-    <t>쿠션 백색 40파이</t>
-  </si>
-  <si>
-    <t>쿠션 투명 134T 1장72개 도어범퍼</t>
-  </si>
-  <si>
-    <t>쿠션 다용도쿠션보호대 미닫이 2M</t>
-  </si>
-  <si>
-    <t>쿠션 손가락보호대 에어쿠션모서리보</t>
-  </si>
-  <si>
-    <t>쿠션 투명 홀 42파이</t>
-  </si>
-  <si>
-    <t>에어쿠션모서리보호대 ㄱ자 중형 2M</t>
-  </si>
-  <si>
-    <t>쿠션 유리와샤 20파이</t>
-  </si>
-  <si>
-    <t>다용도에어쿠션보호대</t>
-  </si>
-  <si>
-    <t>쿠션 피스형 도어범퍼</t>
-  </si>
-  <si>
-    <t>쿠션 보호가드 소형 투명 2M</t>
-  </si>
-  <si>
-    <t>쿠션 월넛 39파이 3M</t>
-  </si>
-  <si>
-    <t>쿠션 투명 10파이</t>
-  </si>
-  <si>
-    <t>에어쿠션모서리보호대 ㄱ자 소형 2m</t>
-  </si>
-  <si>
-    <t>에어쿠션모서리보호대 ㄱ자 소형 2M</t>
-  </si>
-  <si>
-    <t>도어쿠션 바나나문닫힘방지</t>
-  </si>
-  <si>
-    <t>사각쿠션벽매트 아이보리</t>
-  </si>
-  <si>
-    <t>눈썹제모기 솜털제모기 여성면도기</t>
-  </si>
-  <si>
-    <t>솜털제모기 쉐이버 립스틱 면도기 잔</t>
-  </si>
-  <si>
-    <t>브라운 PT 5010 눈썹 잔털 몸털 정리기</t>
-  </si>
-  <si>
-    <t>브라운 FG1100 여성용 눈썹 몸털 정리기</t>
-  </si>
-  <si>
-    <t>자석스토퍼스텐종모양1501</t>
-  </si>
-  <si>
-    <t>문틀용도어스토퍼평스텐좌우선택</t>
-  </si>
-  <si>
-    <t>말굽접착식무타공스토퍼200mm</t>
-  </si>
-  <si>
-    <t>문틀용도어스토퍼스텐겸용</t>
-  </si>
-  <si>
-    <t>바닥스토퍼반달크롬소</t>
-  </si>
-  <si>
-    <t>드릴비트스토퍼3PCS울프크래프트</t>
-  </si>
-  <si>
-    <t>일자스토퍼크롬도어스토퍼</t>
-  </si>
-  <si>
-    <t>104호차세트S4KSL</t>
-  </si>
-  <si>
-    <t>유리스토퍼자</t>
-  </si>
-  <si>
-    <t>유리스토퍼Y자</t>
-  </si>
-  <si>
-    <t>자석스토퍼스텐길이조절1403</t>
-  </si>
-  <si>
-    <t>바닥스토퍼흑링스텐</t>
-  </si>
-  <si>
-    <t>104스토퍼S4KSL</t>
-  </si>
-  <si>
-    <t>바닥스토퍼반달305</t>
-  </si>
-  <si>
-    <t>가구고정스토퍼길이연장볼트</t>
-  </si>
-  <si>
-    <t>바닥스토퍼기둥형</t>
-  </si>
-  <si>
-    <t>카스토퍼PPHA505콘크리트앙카포함</t>
-  </si>
-  <si>
-    <t>홀딩스토퍼중</t>
-  </si>
-  <si>
-    <t>바닥스토퍼무턱반달306250mm크롬무광BS</t>
-  </si>
-  <si>
-    <t>홀딩스토퍼대</t>
-  </si>
-  <si>
-    <t>도어스토퍼90mm</t>
-  </si>
-  <si>
-    <t>큐비클스토퍼옷걸이</t>
-  </si>
-  <si>
-    <t>일자스토퍼BS408철문용</t>
-  </si>
-  <si>
-    <t>일자스토퍼신주도어스토퍼</t>
-  </si>
-  <si>
-    <t>방문도어스토퍼큐브RED일제</t>
-  </si>
-  <si>
-    <t>HK레일스토퍼B4구</t>
-  </si>
-  <si>
-    <t>고무스토퍼C701초록니켈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">창문잠금장치 미닫이문 스토퍼 샷시 </t>
-  </si>
-  <si>
-    <t>G1052 방충 방범 안전 잠금 장치</t>
-  </si>
-  <si>
-    <t>디럭스슬림 방충 방범 안전 잠금</t>
-  </si>
-  <si>
-    <t>디럭스 방충 방범 안전 잠금 장치</t>
-  </si>
-  <si>
-    <t>진동경보기 방충 방범 안전 잠금</t>
-  </si>
-  <si>
-    <t>G1051 방충 방범 안전 잠금 장치</t>
-  </si>
-  <si>
-    <t>G105 방충 방범 안전 잠금 장치 윈</t>
-  </si>
-  <si>
-    <t>G106 창문 방충 방범 안전 잠금 장</t>
-  </si>
-  <si>
-    <t>G102 창문 방충 방범 안전 잠금 장</t>
-  </si>
-  <si>
-    <t>G101 창문 방충 방범 안전 잠금 장</t>
-  </si>
-  <si>
-    <t>쿠션투명</t>
-  </si>
-  <si>
-    <t>쿠션투명도어범퍼</t>
-  </si>
-  <si>
-    <t>쿠션백색52파이3M</t>
-  </si>
-  <si>
-    <t>도어쿠션스마일</t>
-  </si>
-  <si>
-    <t>쿠션피스용15파이투명TP12207</t>
-  </si>
-  <si>
-    <t>쿠션PVC도어범퍼60파이</t>
-  </si>
-  <si>
-    <t>쿠션백색40파이2개입</t>
-  </si>
-  <si>
-    <t>쿠션백색40파이</t>
-  </si>
-  <si>
-    <t>쿠션투명134T1장72개도어범퍼</t>
-  </si>
-  <si>
-    <t>쿠션다용도쿠션보호대미닫이 2M</t>
-  </si>
-  <si>
-    <t>쿠션손가락보호대에어쿠션모서리보</t>
-  </si>
-  <si>
-    <t>LADAM 쿠션 투명 홀 42파이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LADAM 에어 쿠션 모서리 보호대 자중형 </t>
-  </si>
-  <si>
-    <t>쿠션 유리 와샤 20파이</t>
-  </si>
-  <si>
-    <t>LADAM 다용도 에어 쿠션 보호대</t>
-  </si>
-  <si>
-    <t>쿠션 피스형 도어 범퍼 LADAM</t>
-  </si>
-  <si>
-    <t>LADAM 쿠션 보호 가드 소형 투명 2M</t>
-  </si>
-  <si>
-    <t>LADAM 쿠션 월넛 39파이 3M</t>
-  </si>
-  <si>
-    <t>쿠션 투명 10파이 LADAM</t>
-  </si>
-  <si>
-    <t>에어 쿠션 모서리 보호대 자소형 2m 주</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LADAM 에어 쿠션 모서리 보호대 자소형 </t>
-  </si>
-  <si>
-    <t>도어 쿠션 바나나 문닫힘 방지 LADAM</t>
-  </si>
-  <si>
-    <t>LADAM 사각 쿠션 벽매트 아이보리</t>
-  </si>
-  <si>
-    <t>눈썹제모기 솜털제모기 여성면도기 LA</t>
-  </si>
-  <si>
-    <t>솜털제모기 쉐이버 립스틱면도기잔털</t>
-  </si>
-  <si>
-    <t>브라운 LADAM 눈썹 잔털 몸털 정리기 제</t>
-  </si>
-  <si>
-    <t xml:space="preserve">브라운 LADAM 여성용 눈썹 몸털 정리기 </t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1531,291 +59,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -1842,1635 +85,1635 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>21518</v>
+        <v>79695</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>51005</v>
+        <v>19665</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>23909</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>63756</v>
+        <v>21518</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>13151</v>
+        <v>51005</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>3375</v>
+        <v>23909</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8">
-        <v>54990</v>
+        <v>63756</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9">
-        <v>34721</v>
+        <v>13151</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10">
-        <v>4304</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>3985</v>
+        <v>54990</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12">
-        <v>1382</v>
+        <v>34721</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13">
-        <v>9564</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14">
-        <v>14305</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
-        <v>8303</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16">
-        <v>13018</v>
+        <v>9564</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17">
-        <v>8637</v>
+        <v>14305</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18">
-        <v>39051</v>
+        <v>8303</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19">
-        <v>2898</v>
+        <v>13018</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20">
-        <v>10679</v>
+        <v>8637</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21">
-        <v>1594</v>
+        <v>39051</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22">
-        <v>1599</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23">
-        <v>2870</v>
+        <v>10679</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24">
-        <v>1599</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25">
-        <v>2599</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26">
-        <v>1599</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27">
-        <v>2898</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28">
-        <v>2870</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29">
-        <v>1737</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30">
-        <v>15939</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31">
-        <v>14346</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32">
-        <v>15939</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33">
-        <v>1334</v>
+        <v>15939</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34">
-        <v>3188</v>
+        <v>14346</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35">
-        <v>11583</v>
+        <v>15939</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36">
-        <v>3454</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37">
-        <v>1834</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38">
-        <v>5624</v>
+        <v>11583</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39">
-        <v>2126</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40">
-        <v>1209</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41">
-        <v>3653</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42">
-        <v>16736</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
       <c r="C43">
-        <v>2657</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44">
-        <v>3028</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45">
-        <v>2772</v>
+        <v>16736</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46">
-        <v>6376</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47">
-        <v>9404</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48">
-        <v>4370</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
       <c r="C49">
-        <v>300150</v>
+        <v>6376</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
       <c r="C50">
-        <v>834900</v>
+        <v>9404</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
       <c r="C51">
-        <v>1808950</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
       <c r="C52">
-        <v>3910</v>
+        <v>300150</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
       <c r="C53">
-        <v>3910</v>
+        <v>834900</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54">
-        <v>5520</v>
+        <v>1808950</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
       <c r="C55">
-        <v>93150</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56">
-        <v>33350</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
       <c r="C57">
-        <v>43700</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
       <c r="C58">
-        <v>43700</v>
+        <v>93150</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
       <c r="C59">
-        <v>36800</v>
+        <v>33350</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="C60">
-        <v>42550</v>
+        <v>43700</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
       <c r="C61">
-        <v>33350</v>
+        <v>43700</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
       <c r="C62">
-        <v>7475</v>
+        <v>36800</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
       <c r="C63">
-        <v>33350</v>
+        <v>42550</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
       <c r="C64">
-        <v>575</v>
+        <v>33350</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
       <c r="C65">
-        <v>797</v>
+        <v>7475</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="C66">
-        <v>797</v>
+        <v>33350</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
       <c r="C67">
-        <v>957</v>
+        <v>575</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
       <c r="C68">
-        <v>957</v>
+        <v>797</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
       <c r="C69">
-        <v>970</v>
+        <v>797</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
       <c r="C70">
-        <v>1047</v>
+        <v>957</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71">
-        <v>1047</v>
+        <v>957</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72">
-        <v>1063</v>
+        <v>970</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
       <c r="C73">
-        <v>1196</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
       <c r="C74">
-        <v>1236</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
       <c r="C75">
-        <v>1435</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
       </c>
       <c r="C76">
-        <v>1594</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
       </c>
       <c r="C77">
-        <v>1714</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
       </c>
       <c r="C78">
-        <v>1714</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
       <c r="C79">
-        <v>1725</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
       </c>
       <c r="C80">
-        <v>1754</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
       <c r="C81">
-        <v>1754</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
       </c>
       <c r="C82">
-        <v>2427</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
       </c>
       <c r="C83">
-        <v>2604</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
       </c>
       <c r="C84">
-        <v>77050</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
       </c>
       <c r="C85">
-        <v>69805</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
       <c r="C86">
-        <v>66930</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
       </c>
       <c r="C87">
-        <v>46575</v>
+        <v>77050</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
       </c>
       <c r="C88">
-        <v>160080</v>
+        <v>69805</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
       </c>
       <c r="C89">
-        <v>52325</v>
+        <v>66930</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
       </c>
       <c r="C90">
-        <v>74175</v>
+        <v>46575</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
       </c>
       <c r="C91">
-        <v>43700</v>
+        <v>160080</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
       </c>
       <c r="C92">
-        <v>69805</v>
+        <v>52325</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
       </c>
       <c r="C93">
-        <v>2710</v>
+        <v>74175</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
       </c>
       <c r="C94">
-        <v>1196</v>
+        <v>43700</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
       </c>
       <c r="C95">
-        <v>1209</v>
+        <v>69805</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
       </c>
       <c r="C96">
-        <v>1209</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
       </c>
       <c r="C97">
-        <v>3507</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
       </c>
       <c r="C98">
-        <v>44160</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
       </c>
       <c r="C99">
-        <v>41400</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
       </c>
       <c r="C100">
-        <v>23575</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
       </c>
       <c r="C101">
-        <v>17250</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
       </c>
       <c r="C102">
-        <v>26565</v>
+        <v>41400</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
       </c>
       <c r="C103">
-        <v>42780</v>
+        <v>23575</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B104" t="s">
         <v>105</v>
       </c>
       <c r="C104">
-        <v>44160</v>
+        <v>17250</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B105" t="s">
         <v>106</v>
       </c>
       <c r="C105">
-        <v>23460</v>
+        <v>26565</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B106" t="s">
         <v>107</v>
       </c>
       <c r="C106">
-        <v>18055</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B107" t="s">
         <v>108</v>
       </c>
       <c r="C107">
-        <v>27370</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B108" t="s">
         <v>109</v>
       </c>
       <c r="C108">
-        <v>45540</v>
+        <v>23460</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
       </c>
       <c r="C109">
-        <v>1276</v>
+        <v>18055</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B110" t="s">
         <v>111</v>
       </c>
       <c r="C110">
-        <v>6509</v>
+        <v>27370</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B111" t="s">
         <v>112</v>
       </c>
       <c r="C111">
-        <v>4464</v>
+        <v>45540</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B112" t="s">
         <v>113</v>
       </c>
       <c r="C112">
-        <v>1302</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
       </c>
       <c r="C113">
-        <v>564</v>
+        <v>6509</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B114" t="s">
         <v>115</v>
       </c>
       <c r="C114">
-        <v>1173</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B115" t="s">
         <v>116</v>
       </c>
       <c r="C115">
-        <v>4384</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B116" t="s">
         <v>117</v>
       </c>
       <c r="C116">
-        <v>380</v>
+        <v>564</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B117" t="s">
         <v>118</v>
       </c>
       <c r="C117">
-        <v>771</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B118" t="s">
         <v>119</v>
       </c>
       <c r="C118">
-        <v>55787</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
       </c>
       <c r="C119">
-        <v>5419</v>
+        <v>380</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B120" t="s">
         <v>121</v>
       </c>
       <c r="C120">
-        <v>5739</v>
+        <v>771</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B121" t="s">
         <v>122</v>
       </c>
       <c r="C121">
-        <v>506</v>
+        <v>55787</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B122" t="s">
         <v>123</v>
       </c>
       <c r="C122">
-        <v>1700</v>
+        <v>5419</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B123" t="s">
         <v>124</v>
       </c>
       <c r="C123">
-        <v>2553</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B124" t="s">
         <v>125</v>
       </c>
       <c r="C124">
-        <v>1277</v>
+        <v>506</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B125" t="s">
         <v>126</v>
       </c>
       <c r="C125">
-        <v>4650</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
       </c>
       <c r="C126">
-        <v>811</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B127" t="s">
         <v>128</v>
       </c>
       <c r="C127">
-        <v>1302</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B128" t="s">
         <v>129</v>
       </c>
       <c r="C128">
-        <v>266</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B129" t="s">
         <v>130</v>
       </c>
       <c r="C129">
-        <v>2923</v>
+        <v>811</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B130" t="s">
         <v>131</v>
       </c>
       <c r="C130">
-        <v>957</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B131" t="s">
         <v>132</v>
       </c>
       <c r="C131">
-        <v>322</v>
+        <v>266</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B132" t="s">
         <v>133</v>
       </c>
       <c r="C132">
-        <v>702</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B133" t="s">
         <v>134</v>
       </c>
       <c r="C133">
-        <v>2631</v>
+        <v>957</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B134" t="s">
         <v>135</v>
       </c>
       <c r="C134">
-        <v>3028</v>
+        <v>322</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B135" t="s">
         <v>136</v>
       </c>
       <c r="C135">
-        <v>1302</v>
+        <v>702</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
       </c>
       <c r="C136">
-        <v>656</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B137" t="s">
         <v>138</v>
       </c>
       <c r="C137">
-        <v>196</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B138" t="s">
         <v>139</v>
       </c>
       <c r="C138">
-        <v>19287</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B139" t="s">
         <v>140</v>
       </c>
       <c r="C139">
-        <v>4916</v>
+        <v>656</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B140" t="s">
         <v>141</v>
       </c>
       <c r="C140">
-        <v>3188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B141" t="s">
         <v>142</v>
       </c>
       <c r="C141">
-        <v>4517</v>
+        <v>19287</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
       </c>
       <c r="C142">
-        <v>11636</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
       </c>
       <c r="C143">
-        <v>9033</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
       </c>
       <c r="C144">
-        <v>5313</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
       </c>
       <c r="C145">
-        <v>864</v>
+        <v>11636</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
       </c>
       <c r="C146">
-        <v>3726</v>
+        <v>9033</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
       </c>
       <c r="C147">
-        <v>15461</v>
+        <v>5313</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
       </c>
       <c r="C148">
-        <v>3028</v>
+        <v>864</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
       </c>
       <c r="C149">
-        <v>725</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3481,1569 +1724,1569 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
       </c>
       <c r="C151">
-        <v>2346</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152">
-        <v>5175</v>
+        <v>725</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153">
-        <v>10120</v>
+        <v>15461</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154">
-        <v>13800</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
       </c>
       <c r="C155">
-        <v>19550</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156">
-        <v>22540</v>
+        <v>10120</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157">
-        <v>23000</v>
+        <v>13800</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158">
-        <v>26450</v>
+        <v>19550</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159">
-        <v>29900</v>
+        <v>22540</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160">
-        <v>32775</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161">
-        <v>1822</v>
+        <v>26450</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162">
-        <v>2606</v>
+        <v>29900</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163">
-        <v>3188</v>
+        <v>32775</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164">
-        <v>3732</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165">
-        <v>3732</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166">
-        <v>3821</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167">
-        <v>5212</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168">
-        <v>5478</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169">
-        <v>5845</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170">
-        <v>5971</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171">
-        <v>6186</v>
+        <v>5478</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B172" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C172">
-        <v>6313</v>
+        <v>5845</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C173">
-        <v>6477</v>
+        <v>5971</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C174">
-        <v>6831</v>
+        <v>6186</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C175">
-        <v>6831</v>
+        <v>6313</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B176" t="s">
         <v>176</v>
       </c>
       <c r="C176">
-        <v>7097</v>
+        <v>6477</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B177" t="s">
         <v>177</v>
       </c>
       <c r="C177">
-        <v>7097</v>
+        <v>6831</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B178" t="s">
         <v>178</v>
       </c>
       <c r="C178">
-        <v>7160</v>
+        <v>6831</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B179" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C179">
-        <v>7325</v>
+        <v>7097</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C180">
-        <v>7375</v>
+        <v>7097</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C181">
-        <v>7375</v>
+        <v>7160</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C182">
-        <v>8577</v>
+        <v>7325</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B183" t="s">
         <v>182</v>
       </c>
       <c r="C183">
-        <v>8628</v>
+        <v>7375</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B184" t="s">
         <v>183</v>
       </c>
       <c r="C184">
-        <v>8628</v>
+        <v>7375</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B185" t="s">
         <v>184</v>
       </c>
       <c r="C185">
-        <v>8868</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B186" t="s">
         <v>185</v>
       </c>
       <c r="C186">
-        <v>8868</v>
+        <v>8628</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B187" t="s">
         <v>186</v>
       </c>
       <c r="C187">
-        <v>9754</v>
+        <v>8628</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B188" t="s">
         <v>187</v>
       </c>
       <c r="C188">
-        <v>10867</v>
+        <v>8868</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B189" t="s">
         <v>188</v>
       </c>
       <c r="C189">
-        <v>10930</v>
+        <v>8868</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B190" t="s">
         <v>189</v>
       </c>
       <c r="C190">
-        <v>11082</v>
+        <v>9754</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B191" t="s">
         <v>190</v>
       </c>
       <c r="C191">
-        <v>11727</v>
+        <v>10867</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B192" t="s">
         <v>191</v>
       </c>
       <c r="C192">
-        <v>12271</v>
+        <v>10930</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B193" t="s">
         <v>192</v>
       </c>
       <c r="C193">
-        <v>12271</v>
+        <v>11082</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B194" t="s">
         <v>193</v>
       </c>
       <c r="C194">
-        <v>12828</v>
+        <v>11727</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B195" t="s">
         <v>194</v>
       </c>
       <c r="C195">
-        <v>12828</v>
+        <v>12271</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B196" t="s">
         <v>195</v>
       </c>
       <c r="C196">
-        <v>13713</v>
+        <v>12271</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B197" t="s">
         <v>196</v>
       </c>
       <c r="C197">
-        <v>13713</v>
+        <v>12828</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B198" t="s">
         <v>197</v>
       </c>
       <c r="C198">
-        <v>13726</v>
+        <v>12828</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B199" t="s">
         <v>198</v>
       </c>
       <c r="C199">
-        <v>17255</v>
+        <v>13713</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B200" t="s">
         <v>199</v>
       </c>
       <c r="C200">
-        <v>17622</v>
+        <v>13713</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B201" t="s">
         <v>200</v>
       </c>
       <c r="C201">
-        <v>22872</v>
+        <v>13726</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B202" t="s">
         <v>201</v>
       </c>
       <c r="C202">
-        <v>24731</v>
+        <v>17255</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B203" t="s">
         <v>202</v>
       </c>
       <c r="C203">
-        <v>30753</v>
+        <v>17622</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B204" t="s">
         <v>203</v>
       </c>
       <c r="C204">
-        <v>34611</v>
+        <v>22872</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B205" t="s">
         <v>204</v>
       </c>
       <c r="C205">
-        <v>43074</v>
+        <v>24731</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B206" t="s">
         <v>205</v>
       </c>
       <c r="C206">
-        <v>47552</v>
+        <v>30753</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B207" t="s">
         <v>206</v>
       </c>
       <c r="C207">
-        <v>50208</v>
+        <v>34611</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B208" t="s">
         <v>207</v>
       </c>
       <c r="C208">
-        <v>58962</v>
+        <v>43074</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B209" t="s">
         <v>208</v>
       </c>
       <c r="C209">
-        <v>64009</v>
+        <v>47552</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B210" t="s">
         <v>209</v>
       </c>
       <c r="C210">
-        <v>69120</v>
+        <v>50208</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B211" t="s">
         <v>210</v>
       </c>
       <c r="C211">
-        <v>87172</v>
+        <v>58962</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B212" t="s">
         <v>211</v>
       </c>
       <c r="C212">
-        <v>87817</v>
+        <v>64009</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B213" t="s">
         <v>212</v>
       </c>
       <c r="C213">
-        <v>101959</v>
+        <v>69120</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B214" t="s">
         <v>213</v>
       </c>
       <c r="C214">
-        <v>131358</v>
+        <v>87172</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B215" t="s">
         <v>214</v>
       </c>
       <c r="C215">
-        <v>142161</v>
+        <v>87817</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B216" t="s">
         <v>215</v>
       </c>
       <c r="C216">
-        <v>159492</v>
+        <v>101959</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B217" t="s">
         <v>216</v>
       </c>
       <c r="C217">
-        <v>161351</v>
+        <v>131358</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B218" t="s">
         <v>217</v>
       </c>
       <c r="C218">
-        <v>183210</v>
+        <v>142161</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B219" t="s">
         <v>218</v>
       </c>
       <c r="C219">
-        <v>190775</v>
+        <v>159492</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B220" t="s">
         <v>219</v>
       </c>
       <c r="C220">
-        <v>205740</v>
+        <v>161351</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B221" t="s">
         <v>220</v>
       </c>
       <c r="C221">
-        <v>219149</v>
+        <v>183210</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B222" t="s">
         <v>221</v>
       </c>
       <c r="C222">
-        <v>254012</v>
+        <v>190775</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B223" t="s">
         <v>222</v>
       </c>
       <c r="C223">
-        <v>268927</v>
+        <v>205740</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B224" t="s">
         <v>223</v>
       </c>
       <c r="C224">
-        <v>270407</v>
+        <v>219149</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B225" t="s">
         <v>224</v>
       </c>
       <c r="C225">
-        <v>328951</v>
+        <v>254012</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B226" t="s">
         <v>225</v>
       </c>
       <c r="C226">
-        <v>350279</v>
+        <v>268927</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B227" t="s">
         <v>226</v>
       </c>
       <c r="C227">
-        <v>358312</v>
+        <v>270407</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B228" t="s">
         <v>227</v>
       </c>
       <c r="C228">
-        <v>373125</v>
+        <v>328951</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B229" t="s">
         <v>228</v>
       </c>
       <c r="C229">
-        <v>398640</v>
+        <v>350279</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B230" t="s">
         <v>229</v>
       </c>
       <c r="C230">
-        <v>493211</v>
+        <v>358312</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B231" t="s">
         <v>230</v>
       </c>
       <c r="C231">
-        <v>495665</v>
+        <v>373125</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B232" t="s">
         <v>231</v>
       </c>
       <c r="C232">
-        <v>519119</v>
+        <v>398640</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B233" t="s">
         <v>232</v>
       </c>
       <c r="C233">
-        <v>544494</v>
+        <v>493211</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B234" t="s">
         <v>233</v>
       </c>
       <c r="C234">
-        <v>609477</v>
+        <v>495665</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B235" t="s">
         <v>234</v>
       </c>
       <c r="C235">
-        <v>1273059</v>
+        <v>519119</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B236" t="s">
         <v>235</v>
       </c>
       <c r="C236">
-        <v>334</v>
+        <v>544494</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B237" t="s">
         <v>236</v>
       </c>
       <c r="C237">
-        <v>797</v>
+        <v>609477</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B238" t="s">
         <v>237</v>
       </c>
       <c r="C238">
-        <v>2152</v>
+        <v>1273059</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B239" t="s">
         <v>238</v>
       </c>
       <c r="C239">
-        <v>2231</v>
+        <v>334</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B240" t="s">
         <v>239</v>
       </c>
       <c r="C240">
-        <v>2231</v>
+        <v>797</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B241" t="s">
         <v>240</v>
       </c>
       <c r="C241">
-        <v>2312</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B242" t="s">
         <v>241</v>
       </c>
       <c r="C242">
-        <v>2553</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B243" t="s">
         <v>242</v>
       </c>
       <c r="C243">
-        <v>2657</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B244" t="s">
         <v>243</v>
       </c>
       <c r="C244">
-        <v>3028</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B245" t="s">
         <v>244</v>
       </c>
       <c r="C245">
-        <v>38261</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B246" t="s">
         <v>245</v>
       </c>
       <c r="C246">
-        <v>17135</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B247" t="s">
         <v>246</v>
       </c>
       <c r="C247">
-        <v>7638</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B248" t="s">
         <v>247</v>
       </c>
       <c r="C248">
-        <v>8901</v>
+        <v>38261</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B249" t="s">
         <v>248</v>
       </c>
       <c r="C249">
-        <v>96431</v>
+        <v>17135</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B250" t="s">
         <v>249</v>
       </c>
       <c r="C250">
-        <v>28691</v>
+        <v>7638</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B251" t="s">
         <v>250</v>
       </c>
       <c r="C251">
-        <v>127512</v>
+        <v>8901</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B252" t="s">
         <v>251</v>
       </c>
       <c r="C252">
-        <v>43235</v>
+        <v>96431</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B253" t="s">
         <v>252</v>
       </c>
       <c r="C253">
-        <v>50208</v>
+        <v>28691</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B254" t="s">
         <v>253</v>
       </c>
       <c r="C254">
-        <v>84013</v>
+        <v>127512</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B255" t="s">
         <v>254</v>
       </c>
       <c r="C255">
-        <v>78899</v>
+        <v>43235</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B256" t="s">
         <v>255</v>
       </c>
       <c r="C256">
-        <v>75618</v>
+        <v>50208</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B257" t="s">
         <v>256</v>
       </c>
       <c r="C257">
-        <v>35903</v>
+        <v>84013</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B258" t="s">
         <v>257</v>
       </c>
       <c r="C258">
-        <v>74382</v>
+        <v>78899</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B259" t="s">
         <v>258</v>
       </c>
       <c r="C259">
-        <v>38732</v>
+        <v>75618</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B260" t="s">
         <v>259</v>
       </c>
       <c r="C260">
-        <v>111573</v>
+        <v>35903</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B261" t="s">
         <v>260</v>
       </c>
       <c r="C261">
-        <v>11500</v>
+        <v>74382</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="B262" t="s">
         <v>261</v>
       </c>
       <c r="C262">
-        <v>13915</v>
+        <v>38732</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="B263" t="s">
         <v>262</v>
       </c>
       <c r="C263">
-        <v>138000</v>
+        <v>111573</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="B264" t="s">
         <v>263</v>
       </c>
       <c r="C264">
-        <v>55200</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B265" t="s">
         <v>264</v>
       </c>
       <c r="C265">
-        <v>102350</v>
+        <v>13915</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B266" t="s">
         <v>265</v>
       </c>
       <c r="C266">
-        <v>132250</v>
+        <v>138000</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B267" t="s">
         <v>266</v>
       </c>
       <c r="C267">
-        <v>138000</v>
+        <v>55200</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B268" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C268">
-        <v>111550</v>
+        <v>132250</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B269" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C269">
-        <v>129950</v>
+        <v>138000</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B270" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C270">
-        <v>133400</v>
+        <v>111550</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B271" t="s">
         <v>269</v>
       </c>
       <c r="C271">
-        <v>117300</v>
+        <v>129950</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B272" t="s">
         <v>270</v>
       </c>
       <c r="C272">
-        <v>34845</v>
+        <v>133400</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B273" t="s">
         <v>271</v>
       </c>
       <c r="C273">
-        <v>42435</v>
+        <v>117300</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B274" t="s">
         <v>272</v>
       </c>
       <c r="C274">
-        <v>17135</v>
+        <v>34845</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B275" t="s">
         <v>273</v>
       </c>
       <c r="C275">
-        <v>15525</v>
+        <v>42435</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B276" t="s">
         <v>274</v>
       </c>
       <c r="C276">
-        <v>18400</v>
+        <v>17135</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B277" t="s">
         <v>275</v>
       </c>
       <c r="C277">
-        <v>494</v>
+        <v>15525</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B278" t="s">
         <v>276</v>
       </c>
       <c r="C278">
-        <v>288737</v>
+        <v>18400</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B279" t="s">
         <v>277</v>
       </c>
       <c r="C279">
-        <v>6465</v>
+        <v>494</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B280" t="s">
         <v>278</v>
       </c>
       <c r="C280">
-        <v>6465</v>
+        <v>288737</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B281" t="s">
         <v>279</v>
       </c>
       <c r="C281">
-        <v>5225</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B282" t="s">
         <v>280</v>
       </c>
       <c r="C282">
-        <v>5529</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B283" t="s">
         <v>281</v>
       </c>
       <c r="C283">
-        <v>1531</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="B284" t="s">
         <v>282</v>
       </c>
       <c r="C284">
-        <v>5124</v>
+        <v>5529</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="B285" t="s">
         <v>283</v>
       </c>
       <c r="C285">
-        <v>24529</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B286" t="s">
         <v>284</v>
       </c>
       <c r="C286">
-        <v>24529</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B287" t="s">
         <v>285</v>
       </c>
       <c r="C287">
-        <v>5238</v>
+        <v>24529</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B288" t="s">
         <v>286</v>
       </c>
       <c r="C288">
-        <v>5566</v>
+        <v>24529</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B289" t="s">
         <v>287</v>
       </c>
       <c r="C289">
-        <v>18887</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B290" t="s">
         <v>288</v>
       </c>
       <c r="C290">
-        <v>18128</v>
+        <v>5566</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B291" t="s">
         <v>289</v>
       </c>
       <c r="C291">
-        <v>7059</v>
+        <v>18887</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B292" t="s">
         <v>290</v>
       </c>
       <c r="C292">
-        <v>7059</v>
+        <v>18128</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B293" t="s">
         <v>291</v>
@@ -5054,7 +3297,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B294" t="s">
         <v>292</v>
@@ -5065,62 +3308,62 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B295" t="s">
         <v>293</v>
       </c>
       <c r="C295">
-        <v>7654</v>
+        <v>7059</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B296" t="s">
         <v>294</v>
       </c>
       <c r="C296">
-        <v>6920</v>
+        <v>7059</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B297" t="s">
         <v>295</v>
       </c>
       <c r="C297">
-        <v>13005</v>
+        <v>7654</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B298" t="s">
         <v>296</v>
       </c>
       <c r="C298">
-        <v>6110</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B299" t="s">
         <v>297</v>
       </c>
       <c r="C299">
-        <v>6110</v>
+        <v>13005</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B300" t="s">
         <v>298</v>
@@ -5131,7 +3374,7 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B301" t="s">
         <v>299</v>
@@ -5142,139 +3385,139 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B302" t="s">
         <v>300</v>
       </c>
       <c r="C302">
-        <v>5566</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B303" t="s">
         <v>301</v>
       </c>
       <c r="C303">
-        <v>4972</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B304" t="s">
         <v>302</v>
       </c>
       <c r="C304">
-        <v>6958</v>
+        <v>5566</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B305" t="s">
         <v>303</v>
       </c>
       <c r="C305">
-        <v>6958</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B306" t="s">
         <v>304</v>
       </c>
       <c r="C306">
-        <v>6541</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B307" t="s">
         <v>305</v>
       </c>
       <c r="C307">
-        <v>5238</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B308" t="s">
         <v>306</v>
       </c>
       <c r="C308">
-        <v>6338</v>
+        <v>6541</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B309" t="s">
         <v>307</v>
       </c>
       <c r="C309">
-        <v>6882</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B310" t="s">
         <v>308</v>
       </c>
       <c r="C310">
-        <v>1645</v>
+        <v>6338</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B311" t="s">
         <v>309</v>
       </c>
       <c r="C311">
-        <v>1949</v>
+        <v>6882</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B312" t="s">
         <v>310</v>
       </c>
       <c r="C312">
-        <v>24744</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B313" t="s">
         <v>311</v>
       </c>
       <c r="C313">
-        <v>24744</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B314" t="s">
         <v>312</v>
@@ -5285,172 +3528,172 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B315" t="s">
         <v>313</v>
       </c>
       <c r="C315">
-        <v>24529</v>
+        <v>24744</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B316" t="s">
         <v>314</v>
       </c>
       <c r="C316">
-        <v>7059</v>
+        <v>24744</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B317" t="s">
         <v>315</v>
       </c>
       <c r="C317">
-        <v>62276</v>
+        <v>24529</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B318" t="s">
         <v>316</v>
       </c>
       <c r="C318">
-        <v>38419</v>
+        <v>7059</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B319" t="s">
         <v>317</v>
       </c>
       <c r="C319">
-        <v>24757</v>
+        <v>62276</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B320" t="s">
         <v>318</v>
       </c>
       <c r="C320">
-        <v>30424</v>
+        <v>38419</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B321" t="s">
         <v>319</v>
       </c>
       <c r="C321">
-        <v>159365</v>
+        <v>24757</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B322" t="s">
         <v>320</v>
       </c>
       <c r="C322">
-        <v>39646</v>
+        <v>30424</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B323" t="s">
         <v>321</v>
       </c>
       <c r="C323">
-        <v>56091</v>
+        <v>159365</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B324" t="s">
         <v>322</v>
       </c>
       <c r="C324">
-        <v>41290</v>
+        <v>39646</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B325" t="s">
         <v>323</v>
       </c>
       <c r="C325">
-        <v>57722</v>
+        <v>56091</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B326" t="s">
         <v>324</v>
       </c>
       <c r="C326">
-        <v>110400</v>
+        <v>41290</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B327" t="s">
         <v>325</v>
       </c>
       <c r="C327">
-        <v>408250</v>
+        <v>57722</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B328" t="s">
         <v>326</v>
       </c>
       <c r="C328">
-        <v>120750</v>
+        <v>110400</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B329" t="s">
         <v>327</v>
       </c>
       <c r="C329">
-        <v>120750</v>
+        <v>408250</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B330" t="s">
         <v>328</v>
@@ -5461,923 +3704,923 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B331" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C331">
-        <v>101200</v>
+        <v>120750</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B332" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C332">
-        <v>89700</v>
+        <v>120750</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B333" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C333">
-        <v>100050</v>
+        <v>101200</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B334" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C334">
-        <v>100050</v>
+        <v>89700</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B335" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C335">
-        <v>51750</v>
+        <v>100050</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B336" t="s">
         <v>331</v>
       </c>
       <c r="C336">
-        <v>63250</v>
+        <v>100050</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B337" t="s">
         <v>332</v>
       </c>
       <c r="C337">
-        <v>55200</v>
+        <v>51750</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B338" t="s">
         <v>333</v>
       </c>
       <c r="C338">
-        <v>36800</v>
+        <v>63250</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B339" t="s">
         <v>334</v>
       </c>
       <c r="C339">
-        <v>4517</v>
+        <v>55200</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B340" t="s">
         <v>335</v>
       </c>
       <c r="C340">
-        <v>3726</v>
+        <v>36800</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B341" t="s">
         <v>336</v>
       </c>
       <c r="C341">
-        <v>5589</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B342" t="s">
         <v>337</v>
       </c>
       <c r="C342">
-        <v>24035</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B343" t="s">
         <v>338</v>
       </c>
       <c r="C343">
-        <v>2001</v>
+        <v>5589</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B344" t="s">
         <v>339</v>
       </c>
       <c r="C344">
-        <v>1754</v>
+        <v>24035</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B345" t="s">
         <v>340</v>
       </c>
       <c r="C345">
-        <v>1489</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B346" t="s">
         <v>341</v>
       </c>
       <c r="C346">
-        <v>2192</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B347" t="s">
         <v>342</v>
       </c>
       <c r="C347">
-        <v>1594</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B348" t="s">
         <v>343</v>
       </c>
       <c r="C348">
-        <v>1070</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B349" t="s">
         <v>344</v>
       </c>
       <c r="C349">
-        <v>3324</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B350" t="s">
         <v>345</v>
       </c>
       <c r="C350">
-        <v>4384</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B351" t="s">
         <v>346</v>
       </c>
       <c r="C351">
-        <v>4304</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B352" t="s">
         <v>347</v>
       </c>
       <c r="C352">
-        <v>1462</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B353" t="s">
         <v>348</v>
       </c>
       <c r="C353">
-        <v>2668</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B354" t="s">
         <v>349</v>
       </c>
       <c r="C354">
-        <v>10361</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B355" t="s">
         <v>350</v>
       </c>
       <c r="C355">
-        <v>31878</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B356" t="s">
         <v>351</v>
       </c>
       <c r="C356">
-        <v>20163</v>
+        <v>10361</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B357" t="s">
         <v>352</v>
       </c>
       <c r="C357">
-        <v>5048</v>
+        <v>31878</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B358" t="s">
         <v>353</v>
       </c>
       <c r="C358">
-        <v>3188</v>
+        <v>20163</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B359" t="s">
         <v>354</v>
       </c>
       <c r="C359">
-        <v>240</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B360" t="s">
         <v>355</v>
       </c>
       <c r="C360">
-        <v>2325</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B361" t="s">
         <v>356</v>
       </c>
       <c r="C361">
-        <v>3726</v>
+        <v>240</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B362" t="s">
         <v>357</v>
       </c>
       <c r="C362">
-        <v>3985</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B363" t="s">
         <v>358</v>
       </c>
       <c r="C363">
-        <v>15939</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B364" t="s">
         <v>359</v>
       </c>
       <c r="C364">
-        <v>3508</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B365" t="s">
         <v>360</v>
       </c>
       <c r="C365">
-        <v>1355</v>
+        <v>15939</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B366" t="s">
         <v>361</v>
       </c>
       <c r="C366">
-        <v>8846</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B367" t="s">
         <v>362</v>
       </c>
       <c r="C367">
-        <v>1435</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B368" t="s">
         <v>363</v>
       </c>
       <c r="C368">
-        <v>22322</v>
+        <v>8846</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B369" t="s">
         <v>364</v>
       </c>
       <c r="C369">
-        <v>134</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B370" t="s">
         <v>365</v>
       </c>
       <c r="C370">
-        <v>4782</v>
+        <v>22322</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B371" t="s">
         <v>366</v>
       </c>
       <c r="C371">
-        <v>187</v>
+        <v>134</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B372" t="s">
         <v>367</v>
       </c>
       <c r="C372">
-        <v>3726</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B373" t="s">
         <v>368</v>
       </c>
       <c r="C373">
-        <v>2657</v>
+        <v>187</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B374" t="s">
         <v>369</v>
       </c>
       <c r="C374">
-        <v>2381</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B375" t="s">
         <v>370</v>
       </c>
       <c r="C375">
-        <v>3985</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B376" t="s">
         <v>371</v>
       </c>
       <c r="C376">
-        <v>3991</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B377" t="s">
         <v>372</v>
       </c>
       <c r="C377">
-        <v>465</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B378" t="s">
         <v>373</v>
       </c>
       <c r="C378">
-        <v>3188</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B379" t="s">
         <v>374</v>
       </c>
       <c r="C379">
-        <v>10362</v>
+        <v>465</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B380" t="s">
         <v>375</v>
       </c>
       <c r="C380">
-        <v>3667</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B381" t="s">
         <v>376</v>
       </c>
       <c r="C381">
-        <v>2870</v>
+        <v>10362</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B382" t="s">
         <v>377</v>
       </c>
       <c r="C382">
-        <v>6383</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B383" t="s">
         <v>378</v>
       </c>
       <c r="C383">
-        <v>10042</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B384" t="s">
         <v>379</v>
       </c>
       <c r="C384">
-        <v>3825</v>
+        <v>6383</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B385" t="s">
         <v>380</v>
       </c>
       <c r="C385">
-        <v>3188</v>
+        <v>10042</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B386" t="s">
         <v>381</v>
       </c>
       <c r="C386">
-        <v>2710</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B387" t="s">
         <v>382</v>
       </c>
       <c r="C387">
-        <v>4617</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B388" t="s">
         <v>383</v>
       </c>
       <c r="C388">
-        <v>1435</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B389" t="s">
         <v>384</v>
       </c>
       <c r="C389">
-        <v>15276</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B390" t="s">
         <v>385</v>
       </c>
       <c r="C390">
-        <v>1700</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B391" t="s">
         <v>386</v>
       </c>
       <c r="C391">
-        <v>1601</v>
+        <v>15276</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B392" t="s">
         <v>387</v>
       </c>
       <c r="C392">
-        <v>1955</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B393" t="s">
         <v>388</v>
       </c>
       <c r="C393">
-        <v>15065</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B394" t="s">
         <v>389</v>
       </c>
       <c r="C394">
-        <v>11615</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B395" t="s">
         <v>390</v>
       </c>
       <c r="C395">
-        <v>30590</v>
+        <v>15065</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B396" t="s">
         <v>391</v>
       </c>
       <c r="C396">
-        <v>32315</v>
+        <v>11615</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B397" t="s">
         <v>392</v>
       </c>
       <c r="C397">
-        <v>16790</v>
+        <v>30590</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B398" t="s">
         <v>393</v>
       </c>
       <c r="C398">
-        <v>10695</v>
+        <v>32315</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B399" t="s">
         <v>394</v>
       </c>
       <c r="C399">
-        <v>9545</v>
+        <v>16790</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B400" t="s">
         <v>395</v>
       </c>
       <c r="C400">
-        <v>15640</v>
+        <v>10695</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B401" t="s">
         <v>396</v>
       </c>
       <c r="C401">
-        <v>11385</v>
+        <v>9545</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B402" t="s">
         <v>397</v>
       </c>
       <c r="C402">
-        <v>20125</v>
+        <v>15640</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B403" t="s">
         <v>398</v>
       </c>
       <c r="C403">
-        <v>265</v>
+        <v>11385</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B404" t="s">
         <v>399</v>
       </c>
       <c r="C404">
-        <v>1863</v>
+        <v>20125</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B405" t="s">
         <v>400</v>
       </c>
       <c r="C405">
-        <v>1035</v>
+        <v>265</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B406" t="s">
         <v>401</v>
       </c>
       <c r="C406">
-        <v>4530</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B407" t="s">
         <v>402</v>
       </c>
       <c r="C407">
-        <v>69</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B408" t="s">
         <v>403</v>
       </c>
       <c r="C408">
-        <v>1408</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B409" t="s">
         <v>404</v>
       </c>
       <c r="C409">
-        <v>1037</v>
+        <v>69</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B410" t="s">
         <v>405</v>
       </c>
       <c r="C410">
-        <v>472</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B411" t="s">
         <v>406</v>
       </c>
       <c r="C411">
-        <v>7970</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B412" t="s">
         <v>407</v>
       </c>
       <c r="C412">
-        <v>11955</v>
+        <v>472</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B413" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C413">
-        <v>886</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B414" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C414">
         <v>11955</v>
@@ -6385,780 +4628,780 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B415" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C415">
-        <v>797</v>
+        <v>886</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B416" t="s">
         <v>410</v>
       </c>
       <c r="C416">
-        <v>12752</v>
+        <v>11955</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B417" t="s">
         <v>411</v>
       </c>
       <c r="C417">
-        <v>140</v>
+        <v>797</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B418" t="s">
         <v>412</v>
       </c>
       <c r="C418">
-        <v>4530</v>
+        <v>12752</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B419" t="s">
         <v>413</v>
       </c>
       <c r="C419">
-        <v>2870</v>
+        <v>140</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B420" t="s">
         <v>414</v>
       </c>
       <c r="C420">
-        <v>11476</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B421" t="s">
         <v>415</v>
       </c>
       <c r="C421">
-        <v>702</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B422" t="s">
         <v>416</v>
       </c>
       <c r="C422">
-        <v>797</v>
+        <v>11476</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B423" t="s">
         <v>417</v>
       </c>
       <c r="C423">
-        <v>11158</v>
+        <v>702</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B424" t="s">
         <v>418</v>
       </c>
       <c r="C424">
-        <v>11158</v>
+        <v>797</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B425" t="s">
         <v>419</v>
       </c>
       <c r="C425">
-        <v>5685</v>
+        <v>11158</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B426" t="s">
         <v>420</v>
       </c>
       <c r="C426">
-        <v>5428</v>
+        <v>11158</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B427" t="s">
         <v>421</v>
       </c>
       <c r="C427">
-        <v>3450</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B428" t="s">
         <v>422</v>
       </c>
       <c r="C428">
-        <v>3450</v>
+        <v>5428</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B429" t="s">
         <v>423</v>
       </c>
       <c r="C429">
-        <v>33350</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B430" t="s">
         <v>424</v>
       </c>
       <c r="C430">
-        <v>29900</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B431" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="C431">
-        <v>2325</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B432" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C432">
-        <v>3726</v>
+        <v>240</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B433" t="s">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="C433">
-        <v>3985</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B434" t="s">
         <v>427</v>
       </c>
       <c r="C434">
-        <v>15939</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B435" t="s">
         <v>428</v>
       </c>
       <c r="C435">
-        <v>3508</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B436" t="s">
         <v>429</v>
       </c>
       <c r="C436">
-        <v>1355</v>
+        <v>15939</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B437" t="s">
         <v>430</v>
       </c>
       <c r="C437">
-        <v>8846</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B438" t="s">
         <v>431</v>
       </c>
       <c r="C438">
-        <v>1435</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B439" t="s">
         <v>432</v>
       </c>
       <c r="C439">
-        <v>22322</v>
+        <v>8846</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B440" t="s">
         <v>433</v>
       </c>
       <c r="C440">
-        <v>134</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B441" t="s">
-        <v>365</v>
+        <v>434</v>
       </c>
       <c r="C441">
-        <v>4782</v>
+        <v>22322</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B442" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C442">
-        <v>187</v>
+        <v>134</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B443" t="s">
-        <v>435</v>
+        <v>367</v>
       </c>
       <c r="C443">
-        <v>3726</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B444" t="s">
         <v>436</v>
       </c>
       <c r="C444">
-        <v>2657</v>
+        <v>187</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B445" t="s">
         <v>437</v>
       </c>
       <c r="C445">
-        <v>2381</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B446" t="s">
         <v>438</v>
       </c>
       <c r="C446">
-        <v>3985</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B447" t="s">
-        <v>371</v>
+        <v>439</v>
       </c>
       <c r="C447">
-        <v>3991</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B448" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C448">
-        <v>465</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B449" t="s">
-        <v>440</v>
+        <v>373</v>
       </c>
       <c r="C449">
-        <v>3188</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B450" t="s">
         <v>441</v>
       </c>
       <c r="C450">
-        <v>10362</v>
+        <v>465</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B451" t="s">
         <v>442</v>
       </c>
       <c r="C451">
-        <v>3667</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B452" t="s">
-        <v>376</v>
+        <v>443</v>
       </c>
       <c r="C452">
-        <v>2870</v>
+        <v>10362</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B453" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C453">
-        <v>6383</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B454" t="s">
         <v>378</v>
       </c>
       <c r="C454">
-        <v>10042</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B455" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C455">
-        <v>3825</v>
+        <v>6383</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B456" t="s">
-        <v>445</v>
+        <v>380</v>
       </c>
       <c r="C456">
-        <v>3188</v>
+        <v>10042</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B457" t="s">
         <v>446</v>
       </c>
       <c r="C457">
-        <v>2710</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B458" t="s">
         <v>447</v>
       </c>
       <c r="C458">
-        <v>4617</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B459" t="s">
         <v>448</v>
       </c>
       <c r="C459">
-        <v>1435</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B460" t="s">
         <v>449</v>
       </c>
       <c r="C460">
-        <v>15276</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B461" t="s">
         <v>450</v>
       </c>
       <c r="C461">
-        <v>1700</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B462" t="s">
         <v>451</v>
       </c>
       <c r="C462">
-        <v>1601</v>
+        <v>15276</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B463" t="s">
         <v>452</v>
       </c>
       <c r="C463">
-        <v>1955</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B464" t="s">
-        <v>388</v>
+        <v>453</v>
       </c>
       <c r="C464">
-        <v>15065</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B465" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C465">
-        <v>11615</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B466" t="s">
-        <v>454</v>
+        <v>390</v>
       </c>
       <c r="C466">
-        <v>30590</v>
+        <v>15065</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B467" t="s">
         <v>455</v>
       </c>
       <c r="C467">
-        <v>32315</v>
+        <v>11615</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B468" t="s">
         <v>456</v>
       </c>
       <c r="C468">
-        <v>16790</v>
+        <v>30590</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B469" t="s">
         <v>457</v>
       </c>
       <c r="C469">
-        <v>10695</v>
+        <v>32315</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B470" t="s">
         <v>458</v>
       </c>
       <c r="C470">
-        <v>9545</v>
+        <v>16790</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B471" t="s">
         <v>459</v>
       </c>
       <c r="C471">
-        <v>15640</v>
+        <v>10695</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B472" t="s">
         <v>460</v>
       </c>
       <c r="C472">
-        <v>11385</v>
+        <v>9545</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B473" t="s">
         <v>461</v>
       </c>
       <c r="C473">
-        <v>20125</v>
+        <v>15640</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B474" t="s">
         <v>462</v>
       </c>
       <c r="C474">
-        <v>265</v>
+        <v>11385</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B475" t="s">
         <v>463</v>
       </c>
       <c r="C475">
-        <v>1863</v>
+        <v>20125</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B476" t="s">
         <v>464</v>
       </c>
       <c r="C476">
-        <v>1035</v>
+        <v>265</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B477" t="s">
         <v>465</v>
       </c>
       <c r="C477">
-        <v>4530</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B478" t="s">
         <v>466</v>
       </c>
       <c r="C478">
-        <v>69</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B479" t="s">
         <v>467</v>
       </c>
       <c r="C479">
-        <v>1408</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B480" t="s">
         <v>468</v>
       </c>
       <c r="C480">
-        <v>1037</v>
+        <v>69</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B481" t="s">
         <v>469</v>
       </c>
       <c r="C481">
-        <v>472</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B482" t="s">
         <v>470</v>
       </c>
       <c r="C482">
-        <v>7970</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B483" t="s">
         <v>471</v>
       </c>
       <c r="C483">
-        <v>11955</v>
+        <v>472</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B484" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C484">
-        <v>886</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B485" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C485">
         <v>11955</v>
@@ -7166,178 +5409,178 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B486" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C486">
-        <v>797</v>
+        <v>886</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B487" t="s">
         <v>474</v>
       </c>
       <c r="C487">
-        <v>12752</v>
+        <v>11955</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B488" t="s">
         <v>475</v>
       </c>
       <c r="C488">
-        <v>140</v>
+        <v>797</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B489" t="s">
         <v>476</v>
       </c>
       <c r="C489">
-        <v>4530</v>
+        <v>12752</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B490" t="s">
         <v>477</v>
       </c>
       <c r="C490">
-        <v>2870</v>
+        <v>140</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B491" t="s">
         <v>478</v>
       </c>
       <c r="C491">
-        <v>11476</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B492" t="s">
         <v>479</v>
       </c>
       <c r="C492">
-        <v>702</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B493" t="s">
         <v>480</v>
       </c>
       <c r="C493">
-        <v>797</v>
+        <v>11476</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B494" t="s">
         <v>481</v>
       </c>
       <c r="C494">
-        <v>11158</v>
+        <v>702</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B495" t="s">
         <v>482</v>
       </c>
       <c r="C495">
-        <v>11158</v>
+        <v>797</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B496" t="s">
         <v>483</v>
       </c>
       <c r="C496">
-        <v>5685</v>
+        <v>11158</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B497" t="s">
         <v>484</v>
       </c>
       <c r="C497">
-        <v>5428</v>
+        <v>11158</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B498" t="s">
         <v>485</v>
       </c>
       <c r="C498">
-        <v>3450</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B499" t="s">
         <v>486</v>
       </c>
       <c r="C499">
-        <v>3450</v>
+        <v>5428</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B500" t="s">
         <v>487</v>
       </c>
       <c r="C500">
-        <v>33350</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B501" t="s">
         <v>488</v>
       </c>
       <c r="C501">
-        <v>29900</v>
+        <v>3450</v>
       </c>
     </row>
   </sheetData>
